--- a/specifications.xlsx
+++ b/specifications.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>Platinum Shirts</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Item</t>
   </si>
   <si>
-    <t>Platinum Trouser</t>
-  </si>
-  <si>
     <t xml:space="preserve">2/18 PV </t>
   </si>
   <si>
@@ -105,6 +102,69 @@
   </si>
   <si>
     <t>2/30 PC</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>2/30 * 2/30 PV</t>
+  </si>
+  <si>
+    <t>Fabric Plain suiting</t>
+  </si>
+  <si>
+    <t>Platinum Jacket</t>
+  </si>
+  <si>
+    <t>2/30 Poly * 300 d.poly</t>
+  </si>
+  <si>
+    <t>100% Polyster * 300 d.poly</t>
+  </si>
+  <si>
+    <t>Twill Fabric</t>
+  </si>
+  <si>
+    <t>Sweater</t>
+  </si>
+  <si>
+    <t>Dark Blue</t>
+  </si>
+  <si>
+    <t>2/30 * 2/30 Acrylic Yarn</t>
+  </si>
+  <si>
+    <t>Acrylic Yarn</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comfortable PU inner lining, soft inner padded cushion for better comforts
+P.U. soles made with PUF technology
+Finest genuine leather for Uppers with min. thickness of 2mm
+Toe : Steel Toe 
+Wear &amp; tear resistant and can withstand rough usage
+IS: 1529 part
+</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Forecoat Supervisor</t>
+  </si>
+  <si>
+    <t>GST%</t>
+  </si>
+  <si>
+    <t>HSN</t>
+  </si>
+  <si>
+    <t>Platinum Trouser Cloth</t>
   </si>
 </sst>
 </file>
@@ -142,7 +202,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -165,19 +225,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,134 +536,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="G1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>185</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="G2" s="4">
+        <v>295</v>
+      </c>
+      <c r="H2" s="4">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3">
+        <v>6205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1">
+        <v>267</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="G3" s="4">
+        <v>220</v>
+      </c>
+      <c r="H3" s="4">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3">
+        <v>6211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1">
+        <v>131</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4">
+        <v>300</v>
+      </c>
+      <c r="H4" s="4">
+        <v>5</v>
+      </c>
+      <c r="I4" s="3">
+        <v>6205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1">
+        <v>180</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="4">
+        <v>290</v>
+      </c>
+      <c r="H5" s="4">
+        <v>5</v>
+      </c>
+      <c r="I5" s="3">
+        <v>6109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="4">
+        <v>52</v>
+      </c>
+      <c r="H6" s="4">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="I6" s="4">
+        <v>6501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2">
-        <v>267</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2">
-        <v>131</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2">
-        <v>180</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E7" s="3">
+        <v>216</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="4">
+        <v>400</v>
+      </c>
+      <c r="H7" s="4">
+        <v>5</v>
+      </c>
+      <c r="I7" s="3">
+        <v>6205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="3">
+        <v>247</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="4">
+        <v>660</v>
+      </c>
+      <c r="H8" s="4">
+        <v>5</v>
+      </c>
+      <c r="I8" s="3">
+        <v>5903</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="4">
+        <v>470</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
+        <v>650</v>
+      </c>
+      <c r="H9" s="4">
+        <v>5</v>
+      </c>
+      <c r="I9" s="4">
+        <v>6110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="4">
+        <v>750</v>
+      </c>
+      <c r="H10" s="4">
+        <v>5</v>
+      </c>
+      <c r="I10" s="4">
+        <v>6403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
